--- a/biology/Botanique/Aechmea_lingulata/Aechmea_lingulata.xlsx
+++ b/biology/Botanique/Aechmea_lingulata/Aechmea_lingulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aechmea lingulata est une espèce de plantes de la famille des Bromeliaceae qui se rencontre du Costa Rica au Brésil[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aechmea lingulata est une espèce de plantes de la famille des Bromeliaceae qui se rencontre du Costa Rica au Brésil.
 </t>
         </is>
       </c>
@@ -511,24 +523,26 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Aechmea odora (Miq.) Baker[3] ;
-Aechmea plumieri Baker[3] ;
-Aechmea poeppigii Baker[3] ;
-Aechmea surinamensis Beer [non valide][3] ;
-Billbergia odora Miq.[3] ;
-Bromelia lingularia Houtt.[3] ;
-Bromelia lingulata L.[3] ;
-Chevaliera lingulata (L.) Griseb.[3] ;
-Hohenbergia odora (Miq.) Baker[3] ;
-Hoplophytum lingulatum (L.) Beer[3] ;
-Lamprococcus ramosus Beer[3] ;
-Wittmackia glaziovii Mez[3] ;
-Wittmackia lingulata (L.) Mez[3] ;
-Wittmackia odora (Miq.) Mez[3] ;
-Wittmackia poeppigii (Baker) Mez[3] ;
+Aechmea odora (Miq.) Baker ;
+Aechmea plumieri Baker ;
+Aechmea poeppigii Baker ;
+Aechmea surinamensis Beer [non valide] ;
+Billbergia odora Miq. ;
+Bromelia lingularia Houtt. ;
+Bromelia lingulata L. ;
+Chevaliera lingulata (L.) Griseb. ;
+Hohenbergia odora (Miq.) Baker ;
+Hoplophytum lingulatum (L.) Beer ;
+Lamprococcus ramosus Beer ;
+Wittmackia glaziovii Mez ;
+Wittmackia lingulata (L.) Mez ;
+Wittmackia odora (Miq.) Mez ;
+Wittmackia poeppigii (Baker) Mez ;
 </t>
         </is>
       </c>
@@ -557,9 +571,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est épiphyte[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est épiphyte.
 </t>
         </is>
       </c>
